--- a/medicine/Psychotrope/Great_British_Beer_Festival/Great_British_Beer_Festival.xlsx
+++ b/medicine/Psychotrope/Great_British_Beer_Festival/Great_British_Beer_Festival.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Great British Beer Festival ou GBBF en abrégé (« Grande Fête Britannique de la Bière  ») est une fête de la bière britannique annuelle organisée début août (du mardi au samedi) par la  Campaign for Real Ale (CAMRA). On y trouve une très large sélection de bières pression locales (450 marques) et internationales (200 marques) et on y délivre le titre de Champion Beer Of Britain (CBOB). Cette fête, souvent qualifiée de « plus grand pub du monde » est entièrement organisée par un millier de volontaires. La fréquentation est de l'ordre d'environ 66 000 personnes en 2006, qui ont consommé 350 000 pintes de bière. Concurremment à la consommation de bière, il y a aussi de la musique et des jeux traditionnels.
@@ -512,7 +524,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Depuis 1977, cette fête s'est déroulée essentiellement à Londres, mais aussi ailleurs :
 1977 - 1979 : Alexandra Palace, Londres
